--- a/modelAndScore.xlsx
+++ b/modelAndScore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raj\Documents\mlProj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaman\Downloads\ML-Porject-its-a-fraud-main\ML-Porject-its-a-fraud-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2F8E14D-13C0-4BE0-B096-2A4D662E8D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDE883F-A825-46F2-B25B-AF1310B6FFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" xr2:uid="{31C6964D-37AC-4532-9433-425448A7352C}"/>
+    <workbookView xWindow="1410" yWindow="1410" windowWidth="16200" windowHeight="9308" xr2:uid="{31C6964D-37AC-4532-9433-425448A7352C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>model tuned</t>
   </si>
   <si>
-    <t>model score</t>
-  </si>
-  <si>
     <t>xgboost</t>
   </si>
   <si>
@@ -59,6 +56,15 @@
   </si>
   <si>
     <t>logistic regression classifier</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>model best score</t>
   </si>
 </sst>
 </file>
@@ -419,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39201BBB-E690-487B-91EA-013353412847}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -436,28 +442,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.76473999999999998</v>
+        <v>0.88175000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0.79747999999999997</v>
+        <v>0.81933999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0.67530999999999997</v>
@@ -465,15 +471,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0.73831999999999998</v>
+        <v>0.79074</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0.79491000000000001</v>
@@ -481,10 +487,26 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0.75626000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.79200999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.79871000000000003</v>
       </c>
     </row>
   </sheetData>
